--- a/netflix DATA ANALYSIS USING EXCEL.xlsx
+++ b/netflix DATA ANALYSIS USING EXCEL.xlsx
@@ -5,19 +5,19 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9b939a8cca60550d/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9b939a8cca60550d/Desktop/netflix/repo netflix excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{643F1405-62C6-4FF3-A3DE-C5AC1A02F8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{643F1405-62C6-4FF3-A3DE-C5AC1A02F8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFDCB731-8EFC-49DA-B567-8336F8301766}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" activeTab="5" xr2:uid="{878D4E4C-3AEE-4A10-BDE1-7C4B01E0DBBA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet5" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet6" sheetId="7" r:id="rId5"/>
+    <sheet name="TOP TEN" sheetId="3" r:id="rId1"/>
+    <sheet name="MOV_LANG" sheetId="4" r:id="rId2"/>
+    <sheet name="MV_GENRE" sheetId="5" r:id="rId3"/>
+    <sheet name="TOTAL MV_PR_YR" sheetId="6" r:id="rId4"/>
+    <sheet name="AVG IMDB" sheetId="7" r:id="rId5"/>
     <sheet name="Sheet9" sheetId="10" r:id="rId6"/>
     <sheet name="netflix" sheetId="1" r:id="rId7"/>
   </sheets>
@@ -29,7 +29,7 @@
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="33" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3001" uniqueCount="913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3000" uniqueCount="913">
   <si>
     <t>title</t>
   </si>
@@ -3291,8 +3291,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3338,7 +3338,1778 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="291">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3513,48 +5284,6 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -6216,6 +7945,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D756-44B7-A221-3FFB230D8E42}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -6230,6 +7964,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D756-44B7-A221-3FFB230D8E42}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -6244,6 +7983,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-D756-44B7-A221-3FFB230D8E42}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -6258,6 +8002,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-D756-44B7-A221-3FFB230D8E42}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -6272,6 +8021,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-D756-44B7-A221-3FFB230D8E42}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -6286,6 +8040,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-D756-44B7-A221-3FFB230D8E42}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -6302,6 +8061,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-D756-44B7-A221-3FFB230D8E42}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -6318,6 +8082,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-D756-44B7-A221-3FFB230D8E42}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -6334,6 +8103,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-D756-44B7-A221-3FFB230D8E42}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -6350,6 +8124,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-D756-44B7-A221-3FFB230D8E42}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -6366,6 +8145,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-D756-44B7-A221-3FFB230D8E42}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -6382,6 +8166,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-D756-44B7-A221-3FFB230D8E42}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -6399,6 +8188,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-D756-44B7-A221-3FFB230D8E42}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
@@ -6416,6 +8210,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-D756-44B7-A221-3FFB230D8E42}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="14"/>
@@ -6433,6 +8232,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-D756-44B7-A221-3FFB230D8E42}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="15"/>
@@ -6450,6 +8254,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-D756-44B7-A221-3FFB230D8E42}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="16"/>
@@ -6467,6 +8276,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000021-D756-44B7-A221-3FFB230D8E42}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="17"/>
@@ -6484,6 +8298,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000023-D756-44B7-A221-3FFB230D8E42}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="18"/>
@@ -6500,6 +8319,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000025-D756-44B7-A221-3FFB230D8E42}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="19"/>
@@ -6516,6 +8340,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000027-D756-44B7-A221-3FFB230D8E42}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="20"/>
@@ -6532,6 +8361,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000029-D756-44B7-A221-3FFB230D8E42}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="21"/>
@@ -6548,6 +8382,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002B-D756-44B7-A221-3FFB230D8E42}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strLit>
@@ -10836,8 +12675,8 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>7619</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="year">
@@ -10860,7 +12699,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -11089,8 +12928,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>74295</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="year 1">
@@ -11113,7 +12952,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -11338,8 +13177,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="GENRE">
@@ -11362,7 +13201,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -11587,8 +13426,8 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>158115</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="year 2">
@@ -11611,7 +13450,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -19130,7 +20969,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{79F1BA0E-586B-451C-910E-669D1CB5F14D}" name="PivotTable3" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{79F1BA0E-586B-451C-910E-669D1CB5F14D}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0" measureFilter="1">
@@ -19728,16 +21567,16 @@
     <dataField name="Average of imdb_score" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="43">
+    <format dxfId="290">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="42">
+    <format dxfId="289">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="41">
+    <format dxfId="288">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="40">
+    <format dxfId="287">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="8">
@@ -19753,10 +21592,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="39">
+    <format dxfId="286">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="285">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -19782,7 +21621,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C118E4EA-A254-4185-B8B8-6BDCBC8E109B}" name="PivotTable4" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C118E4EA-A254-4185-B8B8-6BDCBC8E109B}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField dataField="1" showAll="0"/>
@@ -19889,16 +21728,16 @@
     <dataField name="Count of title" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="12">
-    <format dxfId="37">
+    <format dxfId="284">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="283">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="35">
+    <format dxfId="282">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="281">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="15">
@@ -19921,48 +21760,34 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="280">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="279">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="204">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="197">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="196">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="195">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
-          <reference field="3" count="15">
-            <x v="0"/>
-            <x v="1"/>
+          <reference field="3" count="1">
             <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-            <x v="6"/>
-            <x v="7"/>
-            <x v="8"/>
-            <x v="9"/>
-            <x v="10"/>
-            <x v="11"/>
-            <x v="13"/>
-            <x v="14"/>
-            <x v="15"/>
-            <x v="16"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="194">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="193">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -19979,8 +21804,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4589C7F6-2A6C-4E3C-B5ED-B57C33E3CCE5}" name="PivotTable5" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4589C7F6-2A6C-4E3C-B5ED-B57C33E3CCE5}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0">
@@ -19992,8 +21817,8 @@
         <item h="1" x="21"/>
         <item h="1" x="20"/>
         <item h="1" x="4"/>
-        <item x="7"/>
-        <item h="1" x="3"/>
+        <item h="1" x="7"/>
+        <item x="3"/>
         <item h="1" x="0"/>
         <item h="1" x="12"/>
         <item h="1" x="19"/>
@@ -20130,12 +21955,9 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="2">
     <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="36"/>
+      <x v="39"/>
     </i>
     <i t="grand">
       <x/>
@@ -20148,16 +21970,16 @@
     <dataField name="Count of title" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="12">
-    <format dxfId="25">
+    <format dxfId="278">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="277">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="276">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="275">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="4">
@@ -20169,22 +21991,22 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="274">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="273">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="272">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="271">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="270">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="269">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="4">
@@ -20196,10 +22018,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="268">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="267">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -20216,8 +22038,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{90456A09-A75D-4093-A3BA-FC7AAE6AF703}" name="PivotTable6" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B32" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{90456A09-A75D-4093-A3BA-FC7AAE6AF703}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
@@ -20285,14 +22107,14 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="9">
-        <item h="1" x="7"/>
+        <item x="7"/>
         <item h="1" x="6"/>
         <item h="1" x="4"/>
         <item h="1" x="5"/>
         <item h="1" x="1"/>
         <item h="1" x="2"/>
         <item h="1" x="0"/>
-        <item x="3"/>
+        <item h="1" x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -20300,90 +22122,9 @@
   <rowFields count="1">
     <field x="5"/>
   </rowFields>
-  <rowItems count="29">
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
+  <rowItems count="2">
     <i>
       <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="47"/>
     </i>
     <i t="grand">
       <x/>
@@ -20396,16 +22137,16 @@
     <dataField name="Count of title" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="13">
+    <format dxfId="266">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="265">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="264">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="263">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -20414,10 +22155,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="262">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="261">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -20434,7 +22175,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{75BF1087-C79C-412F-B96E-3DE23D17DB87}" name="PivotTable7" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{75BF1087-C79C-412F-B96E-3DE23D17DB87}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -20498,10 +22239,10 @@
     <dataField name="Average of imdb_score" fld="5" subtotal="average" baseField="8" baseItem="0" numFmtId="2"/>
   </dataFields>
   <formats count="8">
-    <format dxfId="7">
+    <format dxfId="260">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="259">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -20510,26 +22251,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="258">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="257">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="256">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="255">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="254">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="253">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -20597,14 +22338,14 @@
   <data>
     <tabular pivotCacheId="1922677059">
       <items count="8">
-        <i x="7"/>
+        <i x="7" s="1"/>
         <i x="6"/>
         <i x="4"/>
         <i x="5"/>
         <i x="1"/>
         <i x="2"/>
         <i x="0"/>
-        <i x="3" s="1"/>
+        <i x="3"/>
       </items>
     </tabular>
   </data>
@@ -20626,8 +22367,8 @@
         <i x="21"/>
         <i x="20"/>
         <i x="4"/>
-        <i x="7" s="1"/>
-        <i x="3"/>
+        <i x="7"/>
+        <i x="3" s="1"/>
         <i x="0"/>
         <i x="12"/>
         <i x="19"/>
@@ -20667,7 +22408,7 @@
 
 <file path=xl/slicers/slicer4.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="year 2" xr10:uid="{51CBB7DF-A53C-4C81-B892-52655A052655}" cache="Slicer_year2" caption="year" startItem="1" rowHeight="234950"/>
+  <slicer name="year 2" xr10:uid="{51CBB7DF-A53C-4C81-B892-52655A052655}" cache="Slicer_year2" caption="year" rowHeight="234950"/>
 </slicers>
 </file>
 
@@ -21126,7 +22867,7 @@
   <dimension ref="A3:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21148,7 +22889,7 @@
       <c r="A4" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="7">
         <v>1</v>
       </c>
     </row>
@@ -21156,7 +22897,7 @@
       <c r="A5" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="7">
         <v>1</v>
       </c>
     </row>
@@ -21164,7 +22905,7 @@
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="7">
         <v>95</v>
       </c>
     </row>
@@ -21172,7 +22913,7 @@
       <c r="A7" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="7">
         <v>1</v>
       </c>
     </row>
@@ -21180,7 +22921,7 @@
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="7">
         <v>8</v>
       </c>
     </row>
@@ -21188,7 +22929,7 @@
       <c r="A9" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="7">
         <v>5</v>
       </c>
     </row>
@@ -21196,7 +22937,7 @@
       <c r="A10" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="7">
         <v>14</v>
       </c>
     </row>
@@ -21204,7 +22945,7 @@
       <c r="A11" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="7">
         <v>3</v>
       </c>
     </row>
@@ -21212,7 +22953,7 @@
       <c r="A12" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="7">
         <v>7</v>
       </c>
     </row>
@@ -21220,7 +22961,7 @@
       <c r="A13" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="7">
         <v>2</v>
       </c>
     </row>
@@ -21228,7 +22969,7 @@
       <c r="A14" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="7">
         <v>3</v>
       </c>
     </row>
@@ -21236,7 +22977,7 @@
       <c r="A15" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="7">
         <v>1</v>
       </c>
     </row>
@@ -21244,7 +22985,7 @@
       <c r="A16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="7">
         <v>4</v>
       </c>
     </row>
@@ -21252,7 +22993,7 @@
       <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="7">
         <v>17</v>
       </c>
     </row>
@@ -21260,7 +23001,7 @@
       <c r="A18" s="4" t="s">
         <v>690</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="7">
         <v>1</v>
       </c>
     </row>
@@ -21268,7 +23009,7 @@
       <c r="A19" s="4" t="s">
         <v>910</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="7">
         <v>163</v>
       </c>
     </row>
@@ -21295,7 +23036,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" style="3"/>
   </cols>
@@ -21310,27 +23051,23 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="B4" s="6">
-        <v>11</v>
+        <v>32</v>
+      </c>
+      <c r="B4" s="7">
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="6">
-        <v>1</v>
+        <v>910</v>
+      </c>
+      <c r="B5" s="7">
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>910</v>
-      </c>
-      <c r="B6" s="6">
-        <v>12</v>
-      </c>
+      <c r="A6"/>
+      <c r="B6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21347,7 +23084,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F981C948-C74C-49E6-8D4A-A569776A7D96}">
-  <dimension ref="A3:B32"/>
+  <dimension ref="A3:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
@@ -21370,235 +23107,187 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B4" s="6">
-        <v>2</v>
+        <v>6.4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>4.3</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="A5" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="B5" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="B6" s="6">
-        <v>2</v>
-      </c>
+      <c r="A6"/>
+      <c r="B6"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="B7" s="6">
-        <v>2</v>
-      </c>
+      <c r="A7"/>
+      <c r="B7"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>4.7</v>
-      </c>
-      <c r="B8" s="6">
-        <v>1</v>
-      </c>
+      <c r="A8"/>
+      <c r="B8"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>5</v>
-      </c>
-      <c r="B9" s="6">
-        <v>1</v>
-      </c>
+      <c r="A9"/>
+      <c r="B9"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B10" s="6">
-        <v>1</v>
-      </c>
+      <c r="A10"/>
+      <c r="B10"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>5.2</v>
-      </c>
-      <c r="B11" s="6">
-        <v>2</v>
-      </c>
+      <c r="A11"/>
+      <c r="B11"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>5.3</v>
-      </c>
-      <c r="B12" s="6">
-        <v>1</v>
-      </c>
+      <c r="A12"/>
+      <c r="B12"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>5.4</v>
-      </c>
-      <c r="B13" s="6">
-        <v>2</v>
-      </c>
+      <c r="A13"/>
+      <c r="B13"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="B14" s="6">
-        <v>2</v>
-      </c>
+      <c r="A14"/>
+      <c r="B14"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>5.6</v>
-      </c>
-      <c r="B15" s="6">
-        <v>3</v>
-      </c>
+      <c r="A15"/>
+      <c r="B15"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>5.7</v>
-      </c>
-      <c r="B16" s="6">
-        <v>5</v>
-      </c>
+      <c r="A16"/>
+      <c r="B16"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>5.8</v>
-      </c>
-      <c r="B17" s="6">
-        <v>1</v>
-      </c>
+      <c r="A17"/>
+      <c r="B17"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>5.9</v>
-      </c>
-      <c r="B18" s="6">
-        <v>1</v>
-      </c>
+      <c r="A18"/>
+      <c r="B18"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>6.1</v>
-      </c>
-      <c r="B19" s="6">
-        <v>4</v>
-      </c>
+      <c r="A19"/>
+      <c r="B19"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>6.2</v>
-      </c>
-      <c r="B20" s="6">
-        <v>2</v>
-      </c>
+      <c r="A20"/>
+      <c r="B20"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>6.3</v>
-      </c>
-      <c r="B21" s="6">
-        <v>5</v>
-      </c>
+      <c r="A21"/>
+      <c r="B21"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
-        <v>6.4</v>
-      </c>
-      <c r="B22" s="6">
-        <v>2</v>
-      </c>
+      <c r="A22"/>
+      <c r="B22"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="B23" s="6">
-        <v>4</v>
-      </c>
+      <c r="A23"/>
+      <c r="B23"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
-        <v>6.6</v>
-      </c>
-      <c r="B24" s="6">
-        <v>4</v>
-      </c>
+      <c r="A24"/>
+      <c r="B24"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
-        <v>6.7</v>
-      </c>
-      <c r="B25" s="6">
-        <v>7</v>
-      </c>
+      <c r="A25"/>
+      <c r="B25"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
-        <v>6.8</v>
-      </c>
-      <c r="B26" s="6">
-        <v>1</v>
-      </c>
+      <c r="A26"/>
+      <c r="B26"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
-        <v>6.9</v>
-      </c>
-      <c r="B27" s="6">
-        <v>2</v>
-      </c>
+      <c r="A27"/>
+      <c r="B27"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
-        <v>7</v>
-      </c>
-      <c r="B28" s="6">
-        <v>2</v>
-      </c>
+      <c r="A28"/>
+      <c r="B28"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
-        <v>7.1</v>
-      </c>
-      <c r="B29" s="6">
-        <v>4</v>
-      </c>
+      <c r="A29"/>
+      <c r="B29"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
-        <v>7.2</v>
-      </c>
-      <c r="B30" s="6">
-        <v>1</v>
-      </c>
+      <c r="A30"/>
+      <c r="B30"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="B31" s="6">
-        <v>1</v>
-      </c>
+      <c r="A31"/>
+      <c r="B31"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>910</v>
-      </c>
-      <c r="B32" s="6">
-        <v>66</v>
-      </c>
+      <c r="A32"/>
+      <c r="B32"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33"/>
+      <c r="B33"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34"/>
+      <c r="B34"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35"/>
+      <c r="B35"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36"/>
+      <c r="B36"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37"/>
+      <c r="B37"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38"/>
+      <c r="B38"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39"/>
+      <c r="B39"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40"/>
+      <c r="B40"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41"/>
+      <c r="B41"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42"/>
+      <c r="B42"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43"/>
+      <c r="B43"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44"/>
+      <c r="B44"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45"/>
+      <c r="B45"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46"/>
+      <c r="B46"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47"/>
+      <c r="B47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21718,13 +23407,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACEB7E15-F5ED-41F9-BBEE-5331169D8BBB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="7"/>
+    <col min="1" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/netflix DATA ANALYSIS USING EXCEL.xlsx
+++ b/netflix DATA ANALYSIS USING EXCEL.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9b939a8cca60550d/Desktop/netflix/repo netflix excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9b939a8cca60550d/Desktop/complete/netflix/repo netflix excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{643F1405-62C6-4FF3-A3DE-C5AC1A02F8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5044755A-2C72-4CD3-B001-F7D9CBB2C941}"/>
+  <xr:revisionPtr revIDLastSave="375" documentId="8_{643F1405-62C6-4FF3-A3DE-C5AC1A02F8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18B3A9B1-28A6-44FB-BDAC-FE87B4614F28}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" activeTab="5" xr2:uid="{878D4E4C-3AEE-4A10-BDE1-7C4B01E0DBBA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{878D4E4C-3AEE-4A10-BDE1-7C4B01E0DBBA}"/>
   </bookViews>
   <sheets>
     <sheet name="TOP TEN" sheetId="3" r:id="rId1"/>
-    <sheet name="MOV_LANG" sheetId="4" r:id="rId2"/>
-    <sheet name="MV_GENRE" sheetId="5" r:id="rId3"/>
-    <sheet name="TOTAL MV_PR_YR" sheetId="6" r:id="rId4"/>
-    <sheet name="AVG IMDB" sheetId="7" r:id="rId5"/>
-    <sheet name=" DASHBOARD" sheetId="10" r:id="rId6"/>
-    <sheet name="netflix" sheetId="1" r:id="rId7"/>
+    <sheet name="MAJOR INSIGHTS" sheetId="12" r:id="rId2"/>
+    <sheet name="MOV_LANG" sheetId="4" r:id="rId3"/>
+    <sheet name="MV_GENRE" sheetId="5" r:id="rId4"/>
+    <sheet name="TOTAL MV_PR_YR" sheetId="6" r:id="rId5"/>
+    <sheet name="AVG IMDB" sheetId="7" r:id="rId6"/>
+    <sheet name=" DASHBOARD" sheetId="10" r:id="rId7"/>
+    <sheet name="netflix" sheetId="1" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="Slicer_GENRE">#N/A</definedName>
@@ -29,15 +30,15 @@
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId9"/>
         <x14:slicerCache r:id="rId10"/>
         <x14:slicerCache r:id="rId11"/>
         <x14:slicerCache r:id="rId12"/>
+        <x14:slicerCache r:id="rId13"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3011" uniqueCount="913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3003" uniqueCount="913">
   <si>
     <t>title</t>
   </si>
@@ -3282,7 +3283,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3292,6 +3293,7 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3337,343 +3339,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="92">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="44">
     <dxf>
       <fill>
         <patternFill>
@@ -11521,6 +11187,1303 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9C72632-7037-5A85-2BFA-A786A721D8D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="129540" y="312420"/>
+          <a:ext cx="1783080" cy="5600700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7619</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9217" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E8E4A4F-D4AE-7911-7E91-84D63B3052F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10652760" y="2887980"/>
+          <a:ext cx="2034540" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>PLEASE DOWNLOAD FILE FOR BETTER VIEWING. INSIGHTS--- 1. WHILE ENGLISH DOMINATES , NETFLIX IS PUTTING SOME SERIOUS LEGS IN NEW </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>                                            NON ENGLISH MARKETS.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>                                        2. DOCUMENTARY IS LOVED MOST AS A GENRE SPECIALLLY BY WESTERN WORLD, BUT ACTION ROMANCE HAS </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>                                        VERY STRONG FOOTHOLD.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>                                        3.WITH BEGINNING IN 2014 NOW NETFLIX IS PRODUCING MORE MOVIES THAN EVER ,AND ONE OF THE MOST </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>                                          IN OTT MARKETS.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>                                    4. TO INCREASE REVENUE NETFLIX SHOULD CONCENTRATE MORE ON ASIAN AND AFRICAN MARKETS .  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>                                        5. ROMANCE IMDB RATINGS TENDS TO SATURATE OVER TIME,THE PSYCHOLOGISTS MUST FIND POSSIBLE REASON.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>                                        6. NO BIG DIFFERENCE  in imdb ratings between big stars movies and beginners.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>                                        </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>                                        7.please check python file   for advanced mathematical analysis..</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>                                        </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F92DD136-38E0-E4D0-F89D-36957671B466}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2103120" y="1082040"/>
+          <a:ext cx="12138660" cy="1203960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF5B67DA-02DE-904A-B262-0C3404AD6125}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1996440" y="1165860"/>
+          <a:ext cx="12016740" cy="1043940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{208E1E67-50C6-A377-2EAF-146DE803C0C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2141220" y="2339340"/>
+          <a:ext cx="12047220" cy="1051560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B373012A-0C48-6688-BAC4-69EFDF8B42D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2156460" y="2202180"/>
+          <a:ext cx="11742420" cy="1432560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B229EB7-B3A2-5063-8A7F-345390DA8976}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2179320" y="3550920"/>
+          <a:ext cx="12001500" cy="998220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37BECE22-6562-8E7B-DA16-1B0302F1911F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2194560" y="3604260"/>
+          <a:ext cx="11734800" cy="937260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{938C8DAA-D374-2C1C-5280-92E24EF7B535}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2171700" y="4572000"/>
+          <a:ext cx="11986260" cy="982980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7D40BC6-5188-AE60-12D8-05240EDF1F4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2194560" y="4572000"/>
+          <a:ext cx="11772900" cy="929640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2359ACE7-B69F-65B2-CA7D-E9F90A210C5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2186940" y="5623560"/>
+          <a:ext cx="11902440" cy="982980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B6AE9E6-2AC3-ADD0-E691-AF6D165BB8F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2171700" y="5707380"/>
+          <a:ext cx="11704320" cy="891540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Star: 5 Points 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ACACED5-53B3-EA4C-A116-FB65AC78C31A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4884420" y="30480"/>
+          <a:ext cx="5295900" cy="1181100"/>
+        </a:xfrm>
+        <a:prstGeom prst="star5">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="3200"/>
+            <a:t>INSIGHTS</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rectangle 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FF625C1-B429-A948-F22D-A41CC245408B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="312420" y="480060"/>
+          <a:ext cx="1478280" cy="655320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="2400"/>
+            <a:t>INSIGHTS</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 19">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC00B425-AA73-4D2B-B97C-C3295FD9EADC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="320040" y="1356360"/>
+          <a:ext cx="1478280" cy="655320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1600"/>
+            <a:t>MOV/LANG/YR</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rectangle 20">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{401278C4-304C-43D8-8DAC-B8ACAF5464AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304800" y="2293620"/>
+          <a:ext cx="1478280" cy="655320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1800"/>
+            <a:t>MOV/GENRE</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangle 21">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91421D99-90BD-42C3-80EC-D4C6A744FCE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="259080" y="3230880"/>
+          <a:ext cx="1478280" cy="731520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="2000"/>
+            <a:t>TOTAL/MV/YR/GENRE</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rectangle 22">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC76165E-EA26-4079-B8A8-949B3191804E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="266700" y="4130040"/>
+          <a:ext cx="1478280" cy="655320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1600"/>
+            <a:t>AVG/IMDB/YR</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectangle 23">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94080D80-7AA0-45FC-AC1C-FACC171F9D55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="266700" y="5074920"/>
+          <a:ext cx="1478280" cy="655320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1800"/>
+            <a:t>TOP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1800" baseline="0"/>
+            <a:t> TEN/YR</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -11768,7 +12731,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -12017,7 +12980,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -12390,7 +13353,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12561,7 +13524,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19579,8 +20542,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{79F1BA0E-586B-451C-910E-669D1CB5F14D}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{79F1BA0E-586B-451C-910E-669D1CB5F14D}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0" measureFilter="1">
       <items count="525">
@@ -20124,8 +21087,8 @@
         <item h="1" x="6"/>
         <item h="1" x="4"/>
         <item h="1" x="5"/>
-        <item x="1"/>
-        <item h="1" x="2"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
         <item h="1" x="0"/>
         <item h="1" x="3"/>
         <item t="default"/>
@@ -20135,45 +21098,39 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="14">
+  <rowItems count="12">
     <i>
-      <x v="86"/>
+      <x v="43"/>
     </i>
     <i>
-      <x v="223"/>
+      <x v="68"/>
     </i>
     <i>
-      <x v="239"/>
+      <x v="103"/>
     </i>
     <i>
-      <x v="279"/>
+      <x v="182"/>
     </i>
     <i>
-      <x v="304"/>
+      <x v="204"/>
     </i>
     <i>
-      <x v="306"/>
+      <x v="220"/>
     </i>
     <i>
-      <x v="323"/>
+      <x v="248"/>
     </i>
     <i>
-      <x v="331"/>
+      <x v="330"/>
     </i>
     <i>
-      <x v="351"/>
+      <x v="377"/>
     </i>
     <i>
-      <x v="368"/>
+      <x v="416"/>
     </i>
     <i>
-      <x v="389"/>
-    </i>
-    <i>
-      <x v="472"/>
-    </i>
-    <i>
-      <x v="522"/>
+      <x v="465"/>
     </i>
     <i t="grand">
       <x/>
@@ -20186,16 +21143,16 @@
     <dataField name="Average of imdb_score" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="91">
+    <format dxfId="43">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="90">
+    <format dxfId="42">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="89">
+    <format dxfId="41">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="88">
+    <format dxfId="40">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="8">
@@ -20211,10 +21168,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="87">
+    <format dxfId="39">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="86">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -20240,7 +21197,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C118E4EA-A254-4185-B8B8-6BDCBC8E109B}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C118E4EA-A254-4185-B8B8-6BDCBC8E109B}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField dataField="1" showAll="0"/>
@@ -20347,16 +21304,16 @@
     <dataField name="Count of title" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="12">
-    <format dxfId="85">
+    <format dxfId="37">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="84">
+    <format dxfId="36">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="83">
+    <format dxfId="35">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="82">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="15">
@@ -20379,22 +21336,22 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="81">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="80">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="79">
+    <format dxfId="31">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="78">
+    <format dxfId="30">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="77">
+    <format dxfId="29">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="76">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -20403,10 +21360,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="75">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="74">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -20423,8 +21380,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4589C7F6-2A6C-4E3C-B5ED-B57C33E3CCE5}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4589C7F6-2A6C-4E3C-B5ED-B57C33E3CCE5}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0">
@@ -20432,8 +21389,8 @@
         <item h="1" x="15"/>
         <item h="1" x="6"/>
         <item h="1" x="18"/>
-        <item x="5"/>
-        <item h="1" x="21"/>
+        <item h="1" x="5"/>
+        <item x="21"/>
         <item h="1" x="20"/>
         <item h="1" x="4"/>
         <item h="1" x="7"/>
@@ -20574,33 +21531,15 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="10">
+  <rowItems count="4">
     <i>
-      <x v="9"/>
+      <x v="18"/>
     </i>
     <i>
-      <x v="10"/>
+      <x v="19"/>
     </i>
     <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
+      <x v="20"/>
     </i>
     <i t="grand">
       <x/>
@@ -20613,16 +21552,16 @@
     <dataField name="Count of title" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="12">
-    <format dxfId="73">
+    <format dxfId="25">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="72">
+    <format dxfId="24">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="71">
+    <format dxfId="23">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="70">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="4">
@@ -20634,22 +21573,22 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="69">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="68">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="67">
+    <format dxfId="19">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="66">
+    <format dxfId="18">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="65">
+    <format dxfId="17">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="64">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="4">
@@ -20661,10 +21600,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="63">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="62">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -20681,8 +21620,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{90456A09-A75D-4093-A3BA-FC7AAE6AF703}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{90456A09-A75D-4093-A3BA-FC7AAE6AF703}" name="PivotTable6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
@@ -20752,11 +21691,11 @@
       <items count="9">
         <item h="1" x="7"/>
         <item h="1" x="6"/>
-        <item h="1" x="4"/>
+        <item x="4"/>
         <item h="1" x="5"/>
         <item h="1" x="1"/>
         <item h="1" x="2"/>
-        <item x="0"/>
+        <item h="1" x="0"/>
         <item h="1" x="3"/>
         <item t="default"/>
       </items>
@@ -20765,51 +21704,18 @@
   <rowFields count="1">
     <field x="5"/>
   </rowFields>
-  <rowItems count="44">
+  <rowItems count="21">
     <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="10"/>
+      <x v="7"/>
     </i>
     <i>
       <x v="11"/>
     </i>
     <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
       <x v="15"/>
     </i>
     <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
       <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
     </i>
     <i>
       <x v="21"/>
@@ -20818,28 +21724,16 @@
       <x v="22"/>
     </i>
     <i>
-      <x v="23"/>
-    </i>
-    <i>
       <x v="24"/>
     </i>
     <i>
-      <x v="25"/>
-    </i>
-    <i>
       <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
     </i>
     <i>
       <x v="28"/>
     </i>
     <i>
       <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
     </i>
     <i>
       <x v="31"/>
@@ -20854,9 +21748,6 @@
       <x v="34"/>
     </i>
     <i>
-      <x v="35"/>
-    </i>
-    <i>
       <x v="36"/>
     </i>
     <i>
@@ -20866,34 +21757,13 @@
       <x v="38"/>
     </i>
     <i>
-      <x v="39"/>
-    </i>
-    <i>
       <x v="40"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="43"/>
     </i>
     <i>
       <x v="44"/>
     </i>
     <i>
-      <x v="46"/>
-    </i>
-    <i>
       <x v="47"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="51"/>
     </i>
     <i t="grand">
       <x/>
@@ -20906,16 +21776,16 @@
     <dataField name="Count of title" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="61">
+    <format dxfId="13">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="60">
+    <format dxfId="12">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="59">
+    <format dxfId="11">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="1">
@@ -20924,10 +21794,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="57">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="56">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -20944,7 +21814,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{75BF1087-C79C-412F-B96E-3DE23D17DB87}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{75BF1087-C79C-412F-B96E-3DE23D17DB87}" name="PivotTable7" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -21008,10 +21878,10 @@
     <dataField name="Average of imdb_score" fld="5" subtotal="average" baseField="8" baseItem="0" numFmtId="2"/>
   </dataFields>
   <formats count="8">
-    <format dxfId="55">
+    <format dxfId="7">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="6">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -21020,26 +21890,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="53">
+    <format dxfId="5">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="3">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -21067,8 +21937,8 @@
         <i x="6"/>
         <i x="4"/>
         <i x="5"/>
-        <i x="1" s="1"/>
-        <i x="2"/>
+        <i x="1"/>
+        <i x="2" s="1"/>
         <i x="0"/>
         <i x="3"/>
       </items>
@@ -21109,11 +21979,11 @@
       <items count="8">
         <i x="7"/>
         <i x="6"/>
-        <i x="4"/>
+        <i x="4" s="1"/>
         <i x="5"/>
         <i x="1"/>
         <i x="2"/>
-        <i x="0" s="1"/>
+        <i x="0"/>
         <i x="3"/>
       </items>
     </tabular>
@@ -21132,8 +22002,8 @@
         <i x="15"/>
         <i x="6"/>
         <i x="18"/>
-        <i x="5" s="1"/>
-        <i x="21"/>
+        <i x="5"/>
+        <i x="21" s="1"/>
         <i x="20"/>
         <i x="4"/>
         <i x="7"/>
@@ -21480,13 +22350,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DEB0B0B-A24B-4364-900F-664F9DFE1C1C}">
   <dimension ref="A3:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="8.88671875" style="3"/>
   </cols>
@@ -21501,87 +22369,87 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>508</v>
+        <v>363</v>
       </c>
       <c r="B4" s="5">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>355</v>
+        <v>38</v>
       </c>
       <c r="B5" s="5">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>442</v>
+        <v>562</v>
       </c>
       <c r="B6" s="5">
-        <v>7.2</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>550</v>
+        <v>698</v>
       </c>
       <c r="B7" s="5">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>502</v>
+        <v>834</v>
       </c>
       <c r="B8" s="5">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>824</v>
+        <v>655</v>
       </c>
       <c r="B9" s="5">
-        <v>7.6</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>530</v>
+        <v>489</v>
       </c>
       <c r="B10" s="5">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>497</v>
+        <v>902</v>
       </c>
       <c r="B11" s="5">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>505</v>
+        <v>781</v>
       </c>
       <c r="B12" s="5">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>651</v>
+        <v>366</v>
       </c>
       <c r="B13" s="5">
-        <v>8</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>517</v>
+        <v>593</v>
       </c>
       <c r="B14" s="5">
         <v>7.6</v>
@@ -21589,27 +22457,19 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>735</v>
+        <v>910</v>
       </c>
       <c r="B15" s="5">
-        <v>7.4</v>
+        <v>7.7636363636363628</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="B16" s="5">
-        <v>7.2</v>
-      </c>
+      <c r="A16"/>
+      <c r="B16"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>910</v>
-      </c>
-      <c r="B17" s="5">
-        <v>7.4461538461538472</v>
-      </c>
+      <c r="A17"/>
+      <c r="B17"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
@@ -21656,12 +22516,1040 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9882943C-0C65-418B-AAC3-81DACCF05C8C}">
+  <dimension ref="A1:X39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3B6A9C-32C8-4712-80B7-59B28B5E0600}">
   <dimension ref="A3:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -21804,122 +23692,6 @@
       </c>
       <c r="B19" s="3">
         <v>163</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
-      <x14:slicerList>
-        <x14:slicer r:id="rId3"/>
-      </x14:slicerList>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E33297F-B4E6-40F8-9D97-578FA87C3D3D}">
-  <dimension ref="A3:B13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="35.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>909</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>636</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>808</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>835</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>656</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B12" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>910</v>
-      </c>
-      <c r="B13" s="3">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -21936,16 +23708,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F981C948-C74C-49E6-8D4A-A569776A7D96}">
-  <dimension ref="A3:B47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E33297F-B4E6-40F8-9D97-578FA87C3D3D}">
+  <dimension ref="A3:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" style="3"/>
   </cols>
@@ -21959,356 +23729,60 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>2.6</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="A4" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="B4" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>3.7</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="A5" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="B5" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B6" s="3">
+      <c r="A6" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="B6" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>4.3</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1</v>
+      <c r="A7" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="B7" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="B8" s="3">
-        <v>2</v>
-      </c>
+      <c r="A8"/>
+      <c r="B8"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="B9" s="3">
-        <v>2</v>
-      </c>
+      <c r="A9"/>
+      <c r="B9"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>4.7</v>
-      </c>
-      <c r="B10" s="3">
-        <v>4</v>
-      </c>
+      <c r="A10"/>
+      <c r="B10"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>4.8</v>
-      </c>
-      <c r="B11" s="3">
-        <v>4</v>
-      </c>
+      <c r="A11"/>
+      <c r="B11"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="B12" s="3">
-        <v>2</v>
-      </c>
+      <c r="A12"/>
+      <c r="B12"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>5</v>
-      </c>
-      <c r="B13" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B14" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>5.2</v>
-      </c>
-      <c r="B15" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>5.3</v>
-      </c>
-      <c r="B16" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>5.4</v>
-      </c>
-      <c r="B17" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="B18" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>5.6</v>
-      </c>
-      <c r="B19" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>5.7</v>
-      </c>
-      <c r="B20" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>5.8</v>
-      </c>
-      <c r="B21" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
-        <v>5.9</v>
-      </c>
-      <c r="B22" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
-        <v>6</v>
-      </c>
-      <c r="B23" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
-        <v>6.1</v>
-      </c>
-      <c r="B24" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
-        <v>6.2</v>
-      </c>
-      <c r="B25" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
-        <v>6.3</v>
-      </c>
-      <c r="B26" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
-        <v>6.4</v>
-      </c>
-      <c r="B27" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="B28" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
-        <v>6.6</v>
-      </c>
-      <c r="B29" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
-        <v>6.7</v>
-      </c>
-      <c r="B30" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
-        <v>6.8</v>
-      </c>
-      <c r="B31" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
-        <v>6.9</v>
-      </c>
-      <c r="B32" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
-        <v>7</v>
-      </c>
-      <c r="B33" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
-        <v>7.1</v>
-      </c>
-      <c r="B34" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
-        <v>7.2</v>
-      </c>
-      <c r="B35" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
-        <v>7.3</v>
-      </c>
-      <c r="B36" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
-        <v>7.4</v>
-      </c>
-      <c r="B37" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
-        <v>7.5</v>
-      </c>
-      <c r="B38" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
-        <v>7.6</v>
-      </c>
-      <c r="B39" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
-        <v>7.7</v>
-      </c>
-      <c r="B40" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="B41" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
-        <v>7.9</v>
-      </c>
-      <c r="B42" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="4">
-        <v>8.1</v>
-      </c>
-      <c r="B43" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="4">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="B44" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
-        <v>8.6</v>
-      </c>
-      <c r="B45" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="4">
-        <v>9</v>
-      </c>
-      <c r="B46" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>910</v>
-      </c>
-      <c r="B47" s="3">
-        <v>163</v>
-      </c>
+      <c r="A13"/>
+      <c r="B13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22324,12 +23798,304 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F981C948-C74C-49E6-8D4A-A569776A7D96}">
+  <dimension ref="A3:B47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>5.3</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>5.7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>6.3</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>6.4</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>6.6</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>6.9</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>7.1</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="B19" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>7.3</v>
+      </c>
+      <c r="B20" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>7.9</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="B24" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25"/>
+      <c r="B25"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26"/>
+      <c r="B26"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27"/>
+      <c r="B27"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28"/>
+      <c r="B28"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29"/>
+      <c r="B29"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30"/>
+      <c r="B30"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31"/>
+      <c r="B31"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32"/>
+      <c r="B32"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33"/>
+      <c r="B33"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34"/>
+      <c r="B34"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35"/>
+      <c r="B35"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36"/>
+      <c r="B36"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37"/>
+      <c r="B37"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38"/>
+      <c r="B38"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39"/>
+      <c r="B39"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40"/>
+      <c r="B40"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41"/>
+      <c r="B41"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42"/>
+      <c r="B42"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43"/>
+      <c r="B43"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44"/>
+      <c r="B44"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45"/>
+      <c r="B45"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46"/>
+      <c r="B46"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47"/>
+      <c r="B47"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C0E625-74BD-4DF5-93A0-A9306F18E787}">
   <dimension ref="A3:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -22424,12 +24190,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACEB7E15-F5ED-41F9-BBEE-5331169D8BBB}">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" activeCellId="1" sqref="L40 J12"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22442,11 +24211,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94CACBEF-5DBB-40A3-9511-96F678D4298C}">
   <dimension ref="A1:I525"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A492" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
